--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>15.78811133333333</v>
+        <v>16.962335</v>
       </c>
       <c r="H2">
-        <v>47.364334</v>
+        <v>50.887005</v>
       </c>
       <c r="I2">
-        <v>0.7751682960432017</v>
+        <v>0.725422686224818</v>
       </c>
       <c r="J2">
-        <v>0.7751682960432017</v>
+        <v>0.725422686224818</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N2">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O2">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P2">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q2">
-        <v>114.6126837938362</v>
+        <v>103.06399557675</v>
       </c>
       <c r="R2">
-        <v>1031.514154144526</v>
+        <v>927.57596019075</v>
       </c>
       <c r="S2">
-        <v>0.04105609663992533</v>
+        <v>0.02195205969297468</v>
       </c>
       <c r="T2">
-        <v>0.04105609663992533</v>
+        <v>0.02195205969297468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>15.78811133333333</v>
+        <v>16.962335</v>
       </c>
       <c r="H3">
-        <v>47.364334</v>
+        <v>50.887005</v>
       </c>
       <c r="I3">
-        <v>0.7751682960432017</v>
+        <v>0.725422686224818</v>
       </c>
       <c r="J3">
-        <v>0.7751682960432017</v>
+        <v>0.725422686224818</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>180.397216</v>
       </c>
       <c r="O3">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P3">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q3">
-        <v>949.3771101437939</v>
+        <v>1019.986003619787</v>
       </c>
       <c r="R3">
-        <v>8544.393991294144</v>
+        <v>9179.874032578082</v>
       </c>
       <c r="S3">
-        <v>0.3400820667624295</v>
+        <v>0.2172513641855288</v>
       </c>
       <c r="T3">
-        <v>0.3400820667624295</v>
+        <v>0.2172513641855288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>15.78811133333333</v>
+        <v>16.962335</v>
       </c>
       <c r="H4">
-        <v>47.364334</v>
+        <v>50.887005</v>
       </c>
       <c r="I4">
-        <v>0.7751682960432017</v>
+        <v>0.725422686224818</v>
       </c>
       <c r="J4">
-        <v>0.7751682960432017</v>
+        <v>0.725422686224818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N4">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O4">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P4">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q4">
-        <v>1099.979167373931</v>
+        <v>2282.778955809256</v>
       </c>
       <c r="R4">
-        <v>9899.812506365384</v>
+        <v>20545.01060228331</v>
       </c>
       <c r="S4">
-        <v>0.3940301326408469</v>
+        <v>0.4862192623463145</v>
       </c>
       <c r="T4">
-        <v>0.3940301326408469</v>
+        <v>0.4862192623463145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>3.325805333333333</v>
       </c>
       <c r="H5">
-        <v>9.977415999999998</v>
+        <v>9.977416</v>
       </c>
       <c r="I5">
-        <v>0.1632911498266644</v>
+        <v>0.1422336393407802</v>
       </c>
       <c r="J5">
-        <v>0.1632911498266644</v>
+        <v>0.1422336393407802</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N5">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O5">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P5">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q5">
-        <v>24.14344990235822</v>
+        <v>20.2077594956</v>
       </c>
       <c r="R5">
-        <v>217.291049121224</v>
+        <v>181.8698354604</v>
       </c>
       <c r="S5">
-        <v>0.008648569945325044</v>
+        <v>0.004304140745041699</v>
       </c>
       <c r="T5">
-        <v>0.008648569945325046</v>
+        <v>0.004304140745041697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>3.325805333333333</v>
       </c>
       <c r="H6">
-        <v>9.977415999999998</v>
+        <v>9.977416</v>
       </c>
       <c r="I6">
-        <v>0.1632911498266644</v>
+        <v>0.1422336393407802</v>
       </c>
       <c r="J6">
-        <v>0.1632911498266644</v>
+        <v>0.1422336393407802</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>180.397216</v>
       </c>
       <c r="O6">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P6">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q6">
         <v>199.9886743637618</v>
@@ -818,10 +818,10 @@
         <v>1799.898069273856</v>
       </c>
       <c r="S6">
-        <v>0.07163914210698141</v>
+        <v>0.04259647894480177</v>
       </c>
       <c r="T6">
-        <v>0.07163914210698143</v>
+        <v>0.04259647894480176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>3.325805333333333</v>
       </c>
       <c r="H7">
-        <v>9.977415999999998</v>
+        <v>9.977416</v>
       </c>
       <c r="I7">
-        <v>0.1632911498266644</v>
+        <v>0.1422336393407802</v>
       </c>
       <c r="J7">
-        <v>0.1632911498266644</v>
+        <v>0.1422336393407802</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N7">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O7">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P7">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q7">
-        <v>231.7133762341795</v>
+        <v>447.5845115693991</v>
       </c>
       <c r="R7">
-        <v>2085.420386107615</v>
+        <v>4028.260604124592</v>
       </c>
       <c r="S7">
-        <v>0.08300343777435795</v>
+        <v>0.09533301965093674</v>
       </c>
       <c r="T7">
-        <v>0.08300343777435798</v>
+        <v>0.09533301965093671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.253417</v>
+        <v>3.094551333333333</v>
       </c>
       <c r="H8">
-        <v>3.760251</v>
+        <v>9.283654</v>
       </c>
       <c r="I8">
-        <v>0.06154055413013398</v>
+        <v>0.1323436744344018</v>
       </c>
       <c r="J8">
-        <v>0.06154055413013397</v>
+        <v>0.1323436744344018</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N8">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O8">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P8">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q8">
-        <v>9.099092554504333</v>
+        <v>18.8026486289</v>
       </c>
       <c r="R8">
-        <v>81.891832990539</v>
+        <v>169.2238376601</v>
       </c>
       <c r="S8">
-        <v>0.00325944049897072</v>
+        <v>0.004004859920070422</v>
       </c>
       <c r="T8">
-        <v>0.00325944049897072</v>
+        <v>0.004004859920070421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.253417</v>
+        <v>3.094551333333333</v>
       </c>
       <c r="H9">
-        <v>3.760251</v>
+        <v>9.283654</v>
       </c>
       <c r="I9">
-        <v>0.06154055413013398</v>
+        <v>0.1323436744344018</v>
       </c>
       <c r="J9">
-        <v>0.06154055413013397</v>
+        <v>0.1323436744344018</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>180.397216</v>
       </c>
       <c r="O9">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P9">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q9">
-        <v>75.37097909569067</v>
+        <v>186.0828151008071</v>
       </c>
       <c r="R9">
-        <v>678.3388118612161</v>
+        <v>1674.745335907264</v>
       </c>
       <c r="S9">
-        <v>0.0269990903202712</v>
+        <v>0.03963460801291886</v>
       </c>
       <c r="T9">
-        <v>0.0269990903202712</v>
+        <v>0.03963460801291883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.253417</v>
+        <v>3.094551333333333</v>
       </c>
       <c r="H10">
-        <v>3.760251</v>
+        <v>9.283654</v>
       </c>
       <c r="I10">
-        <v>0.06154055413013398</v>
+        <v>0.1323436744344018</v>
       </c>
       <c r="J10">
-        <v>0.06154055413013397</v>
+        <v>0.1323436744344018</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N10">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O10">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P10">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q10">
-        <v>87.32726536589733</v>
+        <v>416.4625130564164</v>
       </c>
       <c r="R10">
-        <v>785.9453882930759</v>
+        <v>3748.162617507748</v>
       </c>
       <c r="S10">
-        <v>0.03128202331089205</v>
+        <v>0.08870420650141254</v>
       </c>
       <c r="T10">
-        <v>0.03128202331089205</v>
+        <v>0.08870420650141252</v>
       </c>
     </row>
   </sheetData>
